--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_5_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_5_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.26000000000035</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.364329369739056e-16</v>
+        <v>1.319730192719354e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.80359240575869</v>
+        <v>47.30517063274595</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.347252611174845, 49.25993220034254]</t>
+          <t>[44.9505454289704, 49.659795836521496]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.553500271144502</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4906055233248878, 1.6163950189641163]</t>
+          <t>[1.515763422452733, 1.616395018964119]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.40224752174049</v>
+        <v>50.90800967283721</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.73026652224143, 54.074228521239554]</t>
+          <t>[49.26892568966874, 52.54709365600568]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.26178178178205</v>
+        <v>18.22072072072098</v>
       </c>
       <c r="X2" t="n">
-        <v>18.01893893893921</v>
+        <v>18.02636636636662</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.50462462462489</v>
+        <v>18.41507507507534</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.11000000000049</v>
+        <v>24.94000000000046</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364329369739056e-16</v>
+        <v>1.319730192719354e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.60743841221248</v>
+        <v>45.54006655327249</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.17039100987552, 50.04448581454944]</t>
+          <t>[42.12998767743372, 48.95014542911126]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.943474197958004</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.018947895341543, -2.8680005005744658]</t>
+          <t>[2.773658378845042, 2.9246057736121203]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.20416306016533</v>
+        <v>49.77429576724634</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.14384778800315, 54.264478332327506]</t>
+          <t>[47.82083511173683, 51.727756422755846]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.76324324324347</v>
+        <v>13.63087087087112</v>
       </c>
       <c r="X3" t="n">
-        <v>11.46162162162184</v>
+        <v>13.33129129129153</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.0648648648651</v>
+        <v>13.93045045045071</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_5_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_5_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.27000000000035</v>
+        <v>24.31000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.319730192719354e-16</v>
+        <v>1.309997669174226e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>47.30517063274595</v>
+        <v>47.47157709197908</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.9505454289704, 49.659795836521496]</t>
+          <t>[45.182365737783634, 49.76078844617452]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.90800967283721</v>
+        <v>51.90695780287781</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.26892568966874, 52.54709365600568]</t>
+          <t>[50.310793623860334, 53.50312198189529]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.22072072072098</v>
+        <v>18.25075075075102</v>
       </c>
       <c r="X2" t="n">
-        <v>18.02636636636662</v>
+        <v>18.05607607607634</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.41507507507534</v>
+        <v>18.4454254254257</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.94000000000046</v>
+        <v>24.92000000000046</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.319730192719354e-16</v>
+        <v>1.309997669174226e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.54006655327249</v>
+        <v>46.75035323708546</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.12998767743372, 48.95014542911126]</t>
+          <t>[43.22380099660699, 50.27690547756392]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.849132076228581</v>
+        <v>2.773658378845042</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.773658378845042, 2.9246057736121203]</t>
+          <t>[2.698184681461503, 2.8491320762285812]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>49.77429576724634</v>
+        <v>51.5226207775237</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.82083511173683, 51.727756422755846]</t>
+          <t>[49.53889478704414, 53.506346768003255]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.63087087087112</v>
+        <v>13.91927927927954</v>
       </c>
       <c r="X3" t="n">
-        <v>13.33129129129153</v>
+        <v>13.61993993994019</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.93045045045071</v>
+        <v>14.21861861861888</v>
       </c>
     </row>
   </sheetData>
